--- a/biology/Histoire de la zoologie et de la botanique/Kanesuke_Hara/Kanesuke_Hara.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Kanesuke_Hara/Kanesuke_Hara.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Kanesuke Hara (原 摂祐, Hara Kanesuke?), 1885–1962, est un botaniste et mycologue japonais né à Gifu.
 </t>
@@ -511,12 +523,14 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Miyake, I.; Hara, K. 1910. Fungi on Japanese bamboos. Curtis's Botanical Magazine Tokyo 24: (331)-(341), (351)-(360)
 Shirai, M.; Hara, K. 1911. Some new parasitic fungi of Japan. Bot.Mag.Tokyo 25: 69-73
 1911. New genus of fungi on Arundinaria simoni. Botanical Magazine Tokyo 25: (222)-(225)
-1912. On Coccidiodaceae. Botanical Magazine Tokyo 26: 139-[144]
+1912. On Coccidiodaceae. Botanical Magazine Tokyo 26: 139-
 1913. Fungi on Japanese bamboo 2. Bot.Mag.Tokyo 27 (317): (245)-(256)
 1913. Miscellanea on fungi (2). Bot.Mag.Tokyo 27: (62)-(67)
 1914. On fungi parasitic on insects found in Gifu prefecture. Bot.Mag.Tokyo 28: (339)-(351), (1 fig.)
